--- a/BalanceSheet/GPN_bal.xlsx
+++ b/BalanceSheet/GPN_bal.xlsx
@@ -2008,19 +2008,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>163224000.0</v>
+        <v>129000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>66586000.0</v>
+        <v>1696000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-60829000.0</v>
+        <v>1606000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>-169301000.0</v>
+        <v>1637000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-115031000.0</v>
+        <v>1733000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1849424000.0</v>
@@ -3122,19 +3122,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>-47758000.0</v>
+        <v>2941000000.0</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>-22008000.0</v>
+        <v>2959000000.0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-48501000.0</v>
+        <v>2966000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-47957000.0</v>
+        <v>3018000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-65319000.0</v>
+        <v>3139000000.0</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>3352727000.0</v>
